--- a/Code/Results/Cases/Case_4_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_168/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.66552295126911</v>
+        <v>10.72563878218237</v>
       </c>
       <c r="C2">
-        <v>8.508357635119017</v>
+        <v>5.355237703425621</v>
       </c>
       <c r="D2">
-        <v>7.149929662705394</v>
+        <v>5.988194326377732</v>
       </c>
       <c r="E2">
-        <v>29.51539610592161</v>
+        <v>16.41747679856375</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.079336749682486</v>
+        <v>3.641018890355125</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.06196548341394</v>
+        <v>9.970682741257116</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.98757626356823</v>
+        <v>18.65873008793067</v>
       </c>
       <c r="O2">
-        <v>17.45402965790882</v>
+        <v>23.82510249221289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.66703576029772</v>
+        <v>10.41567965699306</v>
       </c>
       <c r="C3">
-        <v>8.021693783431868</v>
+        <v>5.115359297618998</v>
       </c>
       <c r="D3">
-        <v>6.652464801632172</v>
+        <v>5.870128634375859</v>
       </c>
       <c r="E3">
-        <v>27.36877142414399</v>
+        <v>15.49148942939535</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.085623028704098</v>
+        <v>3.643287013654936</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.24192462927813</v>
+        <v>9.753396103095719</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.22262314954233</v>
+        <v>18.72427094975153</v>
       </c>
       <c r="O3">
-        <v>17.16212571822578</v>
+        <v>23.8501096054148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0196332271993</v>
+        <v>10.22319461811687</v>
       </c>
       <c r="C4">
-        <v>7.708800397705362</v>
+        <v>4.961083630589762</v>
       </c>
       <c r="D4">
-        <v>6.330244193997971</v>
+        <v>5.79822248308855</v>
       </c>
       <c r="E4">
-        <v>25.98834930599582</v>
+        <v>14.89867955553206</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.089583972005728</v>
+        <v>3.64475197385754</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.71202955908973</v>
+        <v>9.619785751307392</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.36961047282194</v>
+        <v>18.76632860322066</v>
       </c>
       <c r="O4">
-        <v>16.9982813668856</v>
+        <v>23.87130860129606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.74710470126779</v>
+        <v>10.14434075744446</v>
       </c>
       <c r="C5">
-        <v>7.577774806086213</v>
+        <v>4.896502571506255</v>
       </c>
       <c r="D5">
-        <v>6.204569011077768</v>
+        <v>5.769112731616776</v>
       </c>
       <c r="E5">
-        <v>25.40980178659947</v>
+        <v>14.65127914793525</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.091224612950782</v>
+        <v>3.645367206525984</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.48944478520811</v>
+        <v>9.565370976253037</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.43021438015414</v>
+        <v>18.78392530236685</v>
       </c>
       <c r="O5">
-        <v>16.93529625709044</v>
+        <v>23.88141294715922</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.7013235628977</v>
+        <v>10.13122605778244</v>
       </c>
       <c r="C6">
-        <v>7.555806475343169</v>
+        <v>4.885676969033166</v>
       </c>
       <c r="D6">
-        <v>6.185269915798821</v>
+        <v>5.76429203539461</v>
       </c>
       <c r="E6">
-        <v>25.31275801200429</v>
+        <v>14.60985564899437</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.091498672731527</v>
+        <v>3.645470469524113</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.45208310695714</v>
+        <v>9.556339836512267</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.44032119315167</v>
+        <v>18.78687491563047</v>
       </c>
       <c r="O6">
-        <v>16.92506339816758</v>
+        <v>23.88317915273563</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.01599316204392</v>
+        <v>10.22213266799592</v>
       </c>
       <c r="C7">
-        <v>7.707047550322494</v>
+        <v>4.960219536614973</v>
       </c>
       <c r="D7">
-        <v>6.328433197270492</v>
+        <v>5.79782905918431</v>
       </c>
       <c r="E7">
-        <v>25.98061207110727</v>
+        <v>14.89536621600016</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.089605989473646</v>
+        <v>3.644760197126092</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.70905462876405</v>
+        <v>9.619051653475543</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37042489780582</v>
+        <v>18.76656406277166</v>
       </c>
       <c r="O7">
-        <v>16.99741673185236</v>
+        <v>23.87143894386323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.32832293593698</v>
+        <v>10.61929108111452</v>
       </c>
       <c r="C8">
-        <v>8.343486747695447</v>
+        <v>5.274003085567772</v>
       </c>
       <c r="D8">
-        <v>6.981860722516179</v>
+        <v>5.947390409104071</v>
       </c>
       <c r="E8">
-        <v>28.78798462576592</v>
+        <v>16.10337712160204</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.081483946580695</v>
+        <v>3.641785966673924</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.784679796825</v>
+        <v>9.895851189292181</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.06808820680688</v>
+        <v>18.68095265417253</v>
       </c>
       <c r="O8">
-        <v>17.35013873664471</v>
+        <v>23.8325096420801</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.63300978667137</v>
+        <v>11.37556813204127</v>
       </c>
       <c r="C9">
-        <v>9.47959700685727</v>
+        <v>5.832244067627734</v>
       </c>
       <c r="D9">
-        <v>8.132023425772744</v>
+        <v>6.243385733432624</v>
       </c>
       <c r="E9">
-        <v>33.81418203149907</v>
+        <v>18.33009524098321</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.066305743504342</v>
+        <v>3.636524475497807</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.6859101143184</v>
+        <v>10.43364020119027</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.49470220594596</v>
+        <v>18.52740767558506</v>
       </c>
       <c r="O9">
-        <v>18.16737890159005</v>
+        <v>23.80270042369729</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.16771183587833</v>
+        <v>11.91091143197322</v>
       </c>
       <c r="C10">
-        <v>10.24667740890379</v>
+        <v>6.205820707942469</v>
       </c>
       <c r="D10">
-        <v>8.899823608665862</v>
+        <v>6.459968042753148</v>
       </c>
       <c r="E10">
-        <v>37.23921712442957</v>
+        <v>19.96063086427393</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.055529559054666</v>
+        <v>3.633002887455881</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.95859577560816</v>
+        <v>10.82128040108345</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.08282368771445</v>
+        <v>18.42324679391308</v>
       </c>
       <c r="O10">
-        <v>18.84880147475235</v>
+        <v>23.80934445215443</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.83272358144855</v>
+        <v>12.14884035552683</v>
       </c>
       <c r="C11">
-        <v>10.58132971295742</v>
+        <v>6.367560235273601</v>
       </c>
       <c r="D11">
-        <v>9.232992731316951</v>
+        <v>6.557798001531098</v>
       </c>
       <c r="E11">
-        <v>38.74531422588165</v>
+        <v>20.66055777284254</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.050688450074211</v>
+        <v>3.631474665516635</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.51142760523868</v>
+        <v>10.99514483028896</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.89688963477296</v>
+        <v>18.37771946446499</v>
       </c>
       <c r="O11">
-        <v>19.17731896939906</v>
+        <v>23.81858943217551</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.0798944935658</v>
+        <v>12.23804395462225</v>
       </c>
       <c r="C12">
-        <v>10.70604216263312</v>
+        <v>6.427609912225221</v>
       </c>
       <c r="D12">
-        <v>9.356895737668225</v>
+        <v>6.594704193982347</v>
       </c>
       <c r="E12">
-        <v>39.30873399874335</v>
+        <v>20.91962573156136</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.048862146295961</v>
+        <v>3.630906509306465</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.71709500619159</v>
+        <v>11.06056086429918</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.82663372634791</v>
+        <v>18.36074487821001</v>
       </c>
       <c r="O12">
-        <v>19.30446585460291</v>
+        <v>23.82298576685426</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.02686698576341</v>
+        <v>12.21887349742457</v>
       </c>
       <c r="C13">
-        <v>10.67927184211326</v>
+        <v>6.414730653777142</v>
       </c>
       <c r="D13">
-        <v>9.330310640717968</v>
+        <v>6.586762620778893</v>
       </c>
       <c r="E13">
-        <v>39.18768888620936</v>
+        <v>20.86409620815664</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.049255197506982</v>
+        <v>3.631028403714249</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.67296306800656</v>
+        <v>11.0464921635189</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.84175865624893</v>
+        <v>18.3643888652839</v>
       </c>
       <c r="O13">
-        <v>19.2769590780276</v>
+        <v>23.82199910901354</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.85315110573956</v>
+        <v>12.15619760635326</v>
       </c>
       <c r="C14">
-        <v>10.59162994352559</v>
+        <v>6.37252465082757</v>
       </c>
       <c r="D14">
-        <v>9.243231287706562</v>
+        <v>6.560837321297017</v>
       </c>
       <c r="E14">
-        <v>38.79180203933244</v>
+        <v>20.68199109108119</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.050538071651459</v>
+        <v>3.631427711897788</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.52842121161423</v>
+        <v>11.00053548372073</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.89110688235414</v>
+        <v>18.37631763870145</v>
       </c>
       <c r="O14">
-        <v>19.18772393150091</v>
+        <v>23.818933173759</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.74614235596082</v>
+        <v>12.11768776193974</v>
       </c>
       <c r="C15">
-        <v>10.53768603694998</v>
+        <v>6.346515818424216</v>
       </c>
       <c r="D15">
-        <v>9.189599939134599</v>
+        <v>6.544937958250408</v>
       </c>
       <c r="E15">
-        <v>38.54842844866001</v>
+        <v>20.56966876958821</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.051324711633526</v>
+        <v>3.631673671635982</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.4394086738899</v>
+        <v>10.97232874418182</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.92135242891784</v>
+        <v>18.38365891184637</v>
       </c>
       <c r="O15">
-        <v>19.13342473683585</v>
+        <v>23.81717182230673</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.12359423530464</v>
+        <v>11.89524165734534</v>
       </c>
       <c r="C16">
-        <v>10.22452281442422</v>
+        <v>6.19508397101002</v>
       </c>
       <c r="D16">
-        <v>8.877730745202872</v>
+        <v>6.453557179716373</v>
       </c>
       <c r="E16">
-        <v>37.13979132194397</v>
+        <v>19.91405048638637</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.055847010749073</v>
+        <v>3.633104239647492</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.9219477275886</v>
+        <v>10.8098623402033</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.09499931775102</v>
+        <v>18.42625935084289</v>
       </c>
       <c r="O16">
-        <v>18.82771162871891</v>
+        <v>23.80886555875679</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.73327059756668</v>
+        <v>11.75727710041045</v>
       </c>
       <c r="C17">
-        <v>10.02877260554064</v>
+        <v>6.100070617755867</v>
       </c>
       <c r="D17">
-        <v>8.682321832898403</v>
+        <v>6.397291007806162</v>
       </c>
       <c r="E17">
-        <v>36.26271036184727</v>
+        <v>19.50116465598972</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.05863566605218</v>
+        <v>3.634000697826578</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.5978642597012</v>
+        <v>10.70951164518054</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.20185654234923</v>
+        <v>18.45286779935276</v>
       </c>
       <c r="O17">
-        <v>18.6449676132011</v>
+        <v>23.80536439400871</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.50564117269255</v>
+        <v>11.67740108617956</v>
       </c>
       <c r="C18">
-        <v>9.914833388173292</v>
+        <v>6.04465024374057</v>
       </c>
       <c r="D18">
-        <v>8.5684082037574</v>
+        <v>6.364865094122393</v>
       </c>
       <c r="E18">
-        <v>35.75330752004579</v>
+        <v>19.25974613233914</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.06024549355761</v>
+        <v>3.634523263593471</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.40899619649203</v>
+        <v>10.65156332926889</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.26345611172181</v>
+        <v>18.46834704321716</v>
       </c>
       <c r="O18">
-        <v>18.54159760830746</v>
+        <v>23.80393632227413</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.42802973550106</v>
+        <v>11.65026957739346</v>
       </c>
       <c r="C19">
-        <v>9.876022732894445</v>
+        <v>6.025754010884552</v>
       </c>
       <c r="D19">
-        <v>8.529576392858191</v>
+        <v>6.353876654637471</v>
       </c>
       <c r="E19">
-        <v>35.57996969685003</v>
+        <v>19.17732867701483</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.060791614522191</v>
+        <v>3.63470139030109</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.34462336359955</v>
+        <v>10.63190575796282</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.28433792763477</v>
+        <v>18.47361810448174</v>
       </c>
       <c r="O19">
-        <v>18.50689478481436</v>
+        <v>23.80355336495277</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.77514393509948</v>
+        <v>11.77201841015338</v>
       </c>
       <c r="C20">
-        <v>10.04974987808923</v>
+        <v>6.110264910416403</v>
       </c>
       <c r="D20">
-        <v>8.703280328951035</v>
+        <v>6.403287465363272</v>
       </c>
       <c r="E20">
-        <v>36.35658337390063</v>
+        <v>19.54552433338482</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.058338214575979</v>
+        <v>3.633904549792203</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.63261796648823</v>
+        <v>10.72021837216592</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.19046748171648</v>
+        <v>18.45001720588833</v>
       </c>
       <c r="O20">
-        <v>18.66424044580963</v>
+        <v>23.80567647340084</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.90430107597465</v>
+        <v>12.17463199256285</v>
       </c>
       <c r="C21">
-        <v>10.61742673431807</v>
+        <v>6.38495420581944</v>
       </c>
       <c r="D21">
-        <v>9.268869505038124</v>
+        <v>6.568456314924084</v>
       </c>
       <c r="E21">
-        <v>38.90826619077718</v>
+        <v>20.73564178670197</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.050161088439832</v>
+        <v>3.631310139598249</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.57097580057199</v>
+        <v>11.0140460549268</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.8766083910483</v>
+        <v>18.37280666979584</v>
       </c>
       <c r="O21">
-        <v>19.21385929752547</v>
+        <v>23.81980940911562</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.61519760609973</v>
+        <v>12.43251151524993</v>
       </c>
       <c r="C22">
-        <v>10.97673010130459</v>
+        <v>6.557493112766986</v>
       </c>
       <c r="D22">
-        <v>9.625364992745371</v>
+        <v>6.675571326723917</v>
       </c>
       <c r="E22">
-        <v>40.53599613637886</v>
+        <v>21.47861646628242</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.044856180610895</v>
+        <v>3.629675998724234</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.16285314511722</v>
+        <v>11.20358811045951</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.6723494311536</v>
+        <v>18.32389281115453</v>
       </c>
       <c r="O22">
-        <v>19.58910799416474</v>
+        <v>23.8342653125746</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.23821725507283</v>
+        <v>12.29538421955277</v>
       </c>
       <c r="C23">
-        <v>10.78601728136251</v>
+        <v>6.466050216855485</v>
       </c>
       <c r="D23">
-        <v>9.436280532849882</v>
+        <v>6.61849084468925</v>
       </c>
       <c r="E23">
-        <v>39.67069524558081</v>
+        <v>21.08525342603632</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.047684580121063</v>
+        <v>3.630542566695736</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.84888581371938</v>
+        <v>11.10267479290721</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.78130546904342</v>
+        <v>18.34985785844847</v>
       </c>
       <c r="O23">
-        <v>19.38733417994754</v>
+        <v>23.82607234104321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.75622305928436</v>
+        <v>11.76535559624247</v>
       </c>
       <c r="C24">
-        <v>10.04027041637025</v>
+        <v>6.10565854853566</v>
       </c>
       <c r="D24">
-        <v>8.693809888592291</v>
+        <v>6.400576706006708</v>
       </c>
       <c r="E24">
-        <v>36.31415949092327</v>
+        <v>19.52548192562957</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.058472671716565</v>
+        <v>3.633947995947665</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.61691375834694</v>
+        <v>10.71537865113822</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.19561595527976</v>
+        <v>18.45130539307069</v>
       </c>
       <c r="O24">
-        <v>18.65552193393893</v>
+        <v>23.80553356064346</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.03777870425641</v>
+        <v>11.1740996332629</v>
       </c>
       <c r="C25">
-        <v>9.184212629406391</v>
+        <v>5.687539166974092</v>
       </c>
       <c r="D25">
-        <v>7.834643695575904</v>
+        <v>6.163288642761314</v>
       </c>
       <c r="E25">
-        <v>32.50337373926133</v>
+        <v>17.70689624268311</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.070339621073793</v>
+        <v>3.637887142036106</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.19361633408401</v>
+        <v>10.28916076479682</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.64797871022135</v>
+        <v>18.56742021949639</v>
       </c>
       <c r="O25">
-        <v>17.93237883385377</v>
+        <v>23.80576203292333</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_168/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.72563878218237</v>
+        <v>14.6655229512691</v>
       </c>
       <c r="C2">
-        <v>5.355237703425621</v>
+        <v>8.508357635119083</v>
       </c>
       <c r="D2">
-        <v>5.988194326377732</v>
+        <v>7.149929662705444</v>
       </c>
       <c r="E2">
-        <v>16.41747679856375</v>
+        <v>29.51539610592154</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.641018890355125</v>
+        <v>2.079336749682485</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.970682741257116</v>
+        <v>13.06196548341398</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.65873008793067</v>
+        <v>11.98757626356823</v>
       </c>
       <c r="O2">
-        <v>23.82510249221289</v>
+        <v>17.45402965790878</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.41567965699306</v>
+        <v>13.66703576029767</v>
       </c>
       <c r="C3">
-        <v>5.115359297618998</v>
+        <v>8.021693783431962</v>
       </c>
       <c r="D3">
-        <v>5.870128634375859</v>
+        <v>6.652464801632171</v>
       </c>
       <c r="E3">
-        <v>15.49148942939535</v>
+        <v>27.36877142414396</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.643287013654936</v>
+        <v>2.085623028704097</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.753396103095719</v>
+        <v>12.24192462927811</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.72427094975153</v>
+        <v>12.22262314954233</v>
       </c>
       <c r="O3">
-        <v>23.8501096054148</v>
+        <v>17.16212571822579</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.22319461811687</v>
+        <v>13.01963322719928</v>
       </c>
       <c r="C4">
-        <v>4.961083630589762</v>
+        <v>7.708800397705295</v>
       </c>
       <c r="D4">
-        <v>5.79822248308855</v>
+        <v>6.330244193997991</v>
       </c>
       <c r="E4">
-        <v>14.89867955553206</v>
+        <v>25.98834930599583</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.64475197385754</v>
+        <v>2.089583972005862</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.619785751307392</v>
+        <v>11.71202955908972</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.76632860322066</v>
+        <v>12.3696104728219</v>
       </c>
       <c r="O4">
-        <v>23.87130860129606</v>
+        <v>16.99828136688562</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.14434075744446</v>
+        <v>12.74710470126779</v>
       </c>
       <c r="C5">
-        <v>4.896502571506255</v>
+        <v>7.577774806086104</v>
       </c>
       <c r="D5">
-        <v>5.769112731616776</v>
+        <v>6.20456901107779</v>
       </c>
       <c r="E5">
-        <v>14.65127914793525</v>
+        <v>25.4098017865994</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.645367206525984</v>
+        <v>2.091224612950782</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.565370976253037</v>
+        <v>11.48944478520809</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.78392530236685</v>
+        <v>12.43021438015414</v>
       </c>
       <c r="O5">
-        <v>23.88141294715922</v>
+        <v>16.93529625709045</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.13122605778244</v>
+        <v>12.70132356289772</v>
       </c>
       <c r="C6">
-        <v>4.885676969033166</v>
+        <v>7.555806475343251</v>
       </c>
       <c r="D6">
-        <v>5.76429203539461</v>
+        <v>6.185269915798875</v>
       </c>
       <c r="E6">
-        <v>14.60985564899437</v>
+        <v>25.31275801200427</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.645470469524113</v>
+        <v>2.091498672732061</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.556339836512267</v>
+        <v>11.4520831069572</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.78687491563047</v>
+        <v>12.44032119315167</v>
       </c>
       <c r="O6">
-        <v>23.88317915273563</v>
+        <v>16.92506339816748</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.22213266799592</v>
+        <v>13.01599316204391</v>
       </c>
       <c r="C7">
-        <v>4.960219536614973</v>
+        <v>7.707047550322558</v>
       </c>
       <c r="D7">
-        <v>5.79782905918431</v>
+        <v>6.328433197270479</v>
       </c>
       <c r="E7">
-        <v>14.89536621600016</v>
+        <v>25.98061207110728</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.644760197126092</v>
+        <v>2.089605989473645</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.619051653475543</v>
+        <v>11.70905462876403</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.76656406277166</v>
+        <v>12.37042489780575</v>
       </c>
       <c r="O7">
-        <v>23.87143894386323</v>
+        <v>16.99741673185232</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.61929108111452</v>
+        <v>14.32832293593709</v>
       </c>
       <c r="C8">
-        <v>5.274003085567772</v>
+        <v>8.343486747695291</v>
       </c>
       <c r="D8">
-        <v>5.947390409104071</v>
+        <v>6.981860722516266</v>
       </c>
       <c r="E8">
-        <v>16.10337712160204</v>
+        <v>28.78798462576592</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.641785966673924</v>
+        <v>2.081483946580693</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.895851189292181</v>
+        <v>12.78467979682504</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.68095265417253</v>
+        <v>12.06808820680675</v>
       </c>
       <c r="O8">
-        <v>23.8325096420801</v>
+        <v>17.35013873664453</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.37556813204127</v>
+        <v>16.63300978667144</v>
       </c>
       <c r="C9">
-        <v>5.832244067627734</v>
+        <v>9.479597006857247</v>
       </c>
       <c r="D9">
-        <v>6.243385733432624</v>
+        <v>8.132023425772768</v>
       </c>
       <c r="E9">
-        <v>18.33009524098321</v>
+        <v>33.81418203149907</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.636524475497807</v>
+        <v>2.066305743504341</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.43364020119027</v>
+        <v>14.68591011431845</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.52740767558506</v>
+        <v>11.49470220594586</v>
       </c>
       <c r="O9">
-        <v>23.80270042369729</v>
+        <v>18.16737890158994</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.91091143197322</v>
+        <v>18.1677118358784</v>
       </c>
       <c r="C10">
-        <v>6.205820707942469</v>
+        <v>10.24667740890371</v>
       </c>
       <c r="D10">
-        <v>6.459968042753148</v>
+        <v>8.899823608665793</v>
       </c>
       <c r="E10">
-        <v>19.96063086427393</v>
+        <v>37.23921712442954</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.633002887455881</v>
+        <v>2.055529559054534</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.82128040108345</v>
+        <v>15.95859577560822</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.42324679391308</v>
+        <v>11.08282368771442</v>
       </c>
       <c r="O10">
-        <v>23.80934445215443</v>
+        <v>18.84880147475232</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.14884035552683</v>
+        <v>18.83272358144855</v>
       </c>
       <c r="C11">
-        <v>6.367560235273601</v>
+        <v>10.58132971295739</v>
       </c>
       <c r="D11">
-        <v>6.557798001531098</v>
+        <v>9.232992731316887</v>
       </c>
       <c r="E11">
-        <v>20.66055777284254</v>
+        <v>38.74531422588182</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.631474665516635</v>
+        <v>2.050688450074212</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.99514483028896</v>
+        <v>16.51142760523867</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.37771946446499</v>
+        <v>10.89688963477293</v>
       </c>
       <c r="O11">
-        <v>23.81858943217551</v>
+        <v>19.17731896939902</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.23804395462225</v>
+        <v>19.07989449356592</v>
       </c>
       <c r="C12">
-        <v>6.427609912225221</v>
+        <v>10.70604216263313</v>
       </c>
       <c r="D12">
-        <v>6.594704193982347</v>
+        <v>9.356895737668239</v>
       </c>
       <c r="E12">
-        <v>20.91962573156136</v>
+        <v>39.30873399874331</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.630906509306465</v>
+        <v>2.048862146295828</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.06056086429918</v>
+        <v>16.71709500619171</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.36074487821001</v>
+        <v>10.82663372634784</v>
       </c>
       <c r="O12">
-        <v>23.82298576685426</v>
+        <v>19.30446585460281</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.21887349742457</v>
+        <v>19.02686698576344</v>
       </c>
       <c r="C13">
-        <v>6.414730653777142</v>
+        <v>10.6792718421132</v>
       </c>
       <c r="D13">
-        <v>6.586762620778893</v>
+        <v>9.330310640718038</v>
       </c>
       <c r="E13">
-        <v>20.86409620815664</v>
+        <v>39.18768888620942</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.631028403714249</v>
+        <v>2.049255197506982</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.0464921635189</v>
+        <v>16.67296306800658</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.3643888652839</v>
+        <v>10.84175865624884</v>
       </c>
       <c r="O13">
-        <v>23.82199910901354</v>
+        <v>19.27695907802753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.15619760635326</v>
+        <v>18.85315110573953</v>
       </c>
       <c r="C14">
-        <v>6.37252465082757</v>
+        <v>10.59162994352582</v>
       </c>
       <c r="D14">
-        <v>6.560837321297017</v>
+        <v>9.243231287706587</v>
       </c>
       <c r="E14">
-        <v>20.68199109108119</v>
+        <v>38.79180203933252</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.631427711897788</v>
+        <v>2.050538071651324</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.00053548372073</v>
+        <v>16.52842121161431</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.37631763870145</v>
+        <v>10.89110688235411</v>
       </c>
       <c r="O14">
-        <v>23.818933173759</v>
+        <v>19.18772393150088</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.11768776193974</v>
+        <v>18.74614235596074</v>
       </c>
       <c r="C15">
-        <v>6.346515818424216</v>
+        <v>10.5376860369503</v>
       </c>
       <c r="D15">
-        <v>6.544937958250408</v>
+        <v>9.189599939134593</v>
       </c>
       <c r="E15">
-        <v>20.56966876958821</v>
+        <v>38.54842844866002</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.631673671635982</v>
+        <v>2.051324711633926</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.97232874418182</v>
+        <v>16.43940867388995</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.38365891184637</v>
+        <v>10.92135242891777</v>
       </c>
       <c r="O15">
-        <v>23.81717182230673</v>
+        <v>19.13342473683577</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.89524165734534</v>
+        <v>18.12359423530467</v>
       </c>
       <c r="C16">
-        <v>6.19508397101002</v>
+        <v>10.22452281442425</v>
       </c>
       <c r="D16">
-        <v>6.453557179716373</v>
+        <v>8.877730745202825</v>
       </c>
       <c r="E16">
-        <v>19.91405048638637</v>
+        <v>37.13979132194397</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.633104239647492</v>
+        <v>2.055847010749071</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.8098623402033</v>
+        <v>15.92194772758863</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.42625935084289</v>
+        <v>11.09499931775096</v>
       </c>
       <c r="O16">
-        <v>23.80886555875679</v>
+        <v>18.82771162871889</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.75727710041045</v>
+        <v>17.73327059756672</v>
       </c>
       <c r="C17">
-        <v>6.100070617755867</v>
+        <v>10.02877260554058</v>
       </c>
       <c r="D17">
-        <v>6.397291007806162</v>
+        <v>8.682321832898371</v>
       </c>
       <c r="E17">
-        <v>19.50116465598972</v>
+        <v>36.26271036184721</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.634000697826578</v>
+        <v>2.058635666052045</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.70951164518054</v>
+        <v>15.59786425970122</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.45286779935276</v>
+        <v>11.20185654234919</v>
       </c>
       <c r="O17">
-        <v>23.80536439400871</v>
+        <v>18.64496761320101</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.67740108617956</v>
+        <v>17.50564117269257</v>
       </c>
       <c r="C18">
-        <v>6.04465024374057</v>
+        <v>9.914833388173291</v>
       </c>
       <c r="D18">
-        <v>6.364865094122393</v>
+        <v>8.568408203757507</v>
       </c>
       <c r="E18">
-        <v>19.25974613233914</v>
+        <v>35.75330752004591</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.634523263593471</v>
+        <v>2.060245493557478</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.65156332926889</v>
+        <v>15.40899619649207</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.46834704321716</v>
+        <v>11.26345611172168</v>
       </c>
       <c r="O18">
-        <v>23.80393632227413</v>
+        <v>18.54159760830741</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.65026957739346</v>
+        <v>17.42802973550107</v>
       </c>
       <c r="C19">
-        <v>6.025754010884552</v>
+        <v>9.876022732894398</v>
       </c>
       <c r="D19">
-        <v>6.353876654637471</v>
+        <v>8.52957639285826</v>
       </c>
       <c r="E19">
-        <v>19.17732867701483</v>
+        <v>35.57996969685004</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.63470139030109</v>
+        <v>2.060791614522325</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.63190575796282</v>
+        <v>15.34462336359958</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.47361810448174</v>
+        <v>11.28433792763474</v>
       </c>
       <c r="O19">
-        <v>23.80355336495277</v>
+        <v>18.5068947848143</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.77201841015338</v>
+        <v>17.77514393509949</v>
       </c>
       <c r="C20">
-        <v>6.110264910416403</v>
+        <v>10.04974987808933</v>
       </c>
       <c r="D20">
-        <v>6.403287465363272</v>
+        <v>8.703280328951028</v>
       </c>
       <c r="E20">
-        <v>19.54552433338482</v>
+        <v>36.35658337390059</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.633904549792203</v>
+        <v>2.058338214575845</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.72021837216592</v>
+        <v>15.63261796648827</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.45001720588833</v>
+        <v>11.19046748171648</v>
       </c>
       <c r="O20">
-        <v>23.80567647340084</v>
+        <v>18.6642404458096</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.17463199256285</v>
+        <v>18.90430107597473</v>
       </c>
       <c r="C21">
-        <v>6.38495420581944</v>
+        <v>10.61742673431801</v>
       </c>
       <c r="D21">
-        <v>6.568456314924084</v>
+        <v>9.26886950503809</v>
       </c>
       <c r="E21">
-        <v>20.73564178670197</v>
+        <v>38.90826619077729</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.631310139598249</v>
+        <v>2.050161088439829</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.0140460549268</v>
+        <v>16.57097580057204</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.37280666979584</v>
+        <v>10.8766083910482</v>
       </c>
       <c r="O21">
-        <v>23.81980940911562</v>
+        <v>19.21385929752537</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.43251151524993</v>
+        <v>19.6151976060997</v>
       </c>
       <c r="C22">
-        <v>6.557493112766986</v>
+        <v>10.97673010130444</v>
       </c>
       <c r="D22">
-        <v>6.675571326723917</v>
+        <v>9.625364992745416</v>
       </c>
       <c r="E22">
-        <v>21.47861646628242</v>
+        <v>40.53599613637896</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.629675998724234</v>
+        <v>2.04485618061076</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.20358811045951</v>
+        <v>17.16285314511717</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.32389281115453</v>
+        <v>10.67234943115364</v>
       </c>
       <c r="O22">
-        <v>23.8342653125746</v>
+        <v>19.5891079941648</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.29538421955277</v>
+        <v>19.23821725507286</v>
       </c>
       <c r="C23">
-        <v>6.466050216855485</v>
+        <v>10.78601728136233</v>
       </c>
       <c r="D23">
-        <v>6.61849084468925</v>
+        <v>9.436280532849837</v>
       </c>
       <c r="E23">
-        <v>21.08525342603632</v>
+        <v>39.67069524558069</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.630542566695736</v>
+        <v>2.047684580120928</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.10267479290721</v>
+        <v>16.84888581371935</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.34985785844847</v>
+        <v>10.78130546904349</v>
       </c>
       <c r="O23">
-        <v>23.82607234104321</v>
+        <v>19.38733417994759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.76535559624247</v>
+        <v>17.75622305928441</v>
       </c>
       <c r="C24">
-        <v>6.10565854853566</v>
+        <v>10.04027041637027</v>
       </c>
       <c r="D24">
-        <v>6.400576706006708</v>
+        <v>8.693809888592334</v>
       </c>
       <c r="E24">
-        <v>19.52548192562957</v>
+        <v>36.3141594909232</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.633947995947665</v>
+        <v>2.058472671716966</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.71537865113822</v>
+        <v>15.61691375834698</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.45130539307069</v>
+        <v>11.19561595527979</v>
       </c>
       <c r="O24">
-        <v>23.80553356064346</v>
+        <v>18.65552193393895</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.1740996332629</v>
+        <v>16.03777870425652</v>
       </c>
       <c r="C25">
-        <v>5.687539166974092</v>
+        <v>9.184212629406478</v>
       </c>
       <c r="D25">
-        <v>6.163288642761314</v>
+        <v>7.834643695575886</v>
       </c>
       <c r="E25">
-        <v>17.70689624268311</v>
+        <v>32.50337373926143</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.637887142036106</v>
+        <v>2.070339621073657</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.28916076479682</v>
+        <v>14.19361633408417</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.56742021949639</v>
+        <v>11.64797871022112</v>
       </c>
       <c r="O25">
-        <v>23.80576203292333</v>
+        <v>17.93237883385353</v>
       </c>
     </row>
   </sheetData>
